--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/10,25/20,10,25 Бутырин на погрузку с филиалами на 25,10,25/Бутырин Д.В 28.10.2025.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/10,25/20,10,25 Бутырин на погрузку с филиалами на 25,10,25/Бутырин Д.В 28.10.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\20,10,25 Бутырин на погрузку с филиалами на 25,10,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\10,25\20,10,25 Бутырин на погрузку с филиалами на 25,10,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F89DE-7760-42CC-95CA-F3E624C6B724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5D1E8-D09B-43F6-A696-4CE60390BCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,24 +300,32 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1712,7 +1720,7 @@
   <dimension ref="A1:V474"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
